--- a/mcmaster_excel/Pan_Head_Combination_Phillips/Slotted_Screws.xlsx
+++ b/mcmaster_excel/Pan_Head_Combination_Phillips/Slotted_Screws.xlsx
@@ -435,78 +435,90 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Head Ht.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -566,7 +578,11 @@
           <t>2-56</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -624,7 +640,11 @@
           <t>2-56</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -682,7 +702,11 @@
           <t>2-56</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -740,7 +764,11 @@
           <t>2-56</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -798,7 +826,11 @@
           <t>2-56</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -856,7 +888,11 @@
           <t>2-56</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -914,7 +950,11 @@
           <t>2-56</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -972,7 +1012,11 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1030,7 +1074,11 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1088,7 +1136,11 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1146,7 +1198,11 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1204,7 +1260,11 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1262,7 +1322,11 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1320,7 +1384,11 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1378,7 +1446,11 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1436,7 +1508,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1494,7 +1570,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1552,7 +1632,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1610,7 +1694,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1668,7 +1756,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1726,7 +1818,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1784,7 +1880,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1842,7 +1942,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1900,7 +2004,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1958,7 +2066,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2016,7 +2128,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2074,7 +2190,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2132,7 +2252,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2190,7 +2314,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2248,7 +2376,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2306,7 +2438,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2364,7 +2500,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2422,7 +2562,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2480,7 +2624,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2538,7 +2686,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2596,7 +2748,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2654,7 +2810,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2712,7 +2872,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2770,7 +2934,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2828,7 +2996,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2886,7 +3058,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2944,7 +3120,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3002,7 +3182,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3060,7 +3244,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3118,7 +3306,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3176,7 +3368,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3234,7 +3430,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3292,7 +3492,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3350,7 +3554,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3408,7 +3616,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3466,7 +3678,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3524,7 +3740,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3582,7 +3802,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3640,7 +3864,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3698,7 +3926,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3756,7 +3988,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3814,7 +4050,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3872,7 +4112,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3930,7 +4174,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3988,7 +4236,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4046,7 +4298,11 @@
           <t>12-24</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4104,7 +4360,11 @@
           <t>12-24</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4162,7 +4422,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4220,7 +4484,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4278,7 +4546,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4336,7 +4608,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4394,7 +4670,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4452,7 +4732,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4510,7 +4794,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4568,7 +4856,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4626,7 +4918,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4684,7 +4980,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4742,7 +5042,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4755,7 +5059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4764,129 +5068,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>97181A101</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$6.62</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4926,12 +5198,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>97181A102</t>
+          <t>97181A101</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>$6.62</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -4948,7 +5220,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4988,12 +5260,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>97181A103</t>
+          <t>97181A102</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -5010,7 +5282,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5020,17 +5292,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -5050,17 +5322,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>97181A104</t>
+          <t>97181A103</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -5072,7 +5344,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5112,12 +5384,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>97181A105</t>
+          <t>97181A104</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -5134,7 +5406,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5174,12 +5446,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>97181A106</t>
+          <t>97181A105</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -5196,7 +5468,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5236,12 +5508,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>97181A107</t>
+          <t>97181A106</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10.72</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -5258,7 +5530,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5268,12 +5540,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5298,17 +5570,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>97181A108</t>
+          <t>97181A107</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -5320,7 +5592,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5360,12 +5632,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>97181A109</t>
+          <t>97181A108</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -5382,7 +5654,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5422,12 +5694,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>97181A111</t>
+          <t>97181A109</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>13.20</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -5444,7 +5716,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5479,17 +5751,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>97181A112</t>
+          <t>97181A111</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>13.20</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -5506,7 +5778,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5546,12 +5818,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>97181A113</t>
+          <t>97181A112</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>9.88</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -5568,7 +5840,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5578,12 +5850,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -5608,17 +5880,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>97181A114</t>
+          <t>97181A113</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -5630,7 +5902,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5670,12 +5942,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>97181A115</t>
+          <t>97181A114</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -5692,7 +5964,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5732,12 +6004,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>97181A116</t>
+          <t>97181A115</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -5754,7 +6026,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5794,12 +6066,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>97181A117</t>
+          <t>97181A116</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -5816,7 +6088,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5856,12 +6128,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>97181A118</t>
+          <t>97181A117</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -5878,7 +6150,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5918,17 +6190,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>97181A119</t>
+          <t>97181A118</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -5940,7 +6212,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5980,12 +6252,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>97181A121</t>
+          <t>97181A119</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -6002,7 +6274,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -6042,12 +6314,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>97181A122</t>
+          <t>97181A121</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -6064,7 +6336,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -6104,12 +6376,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>97181A123</t>
+          <t>97181A122</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11.96</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -6126,7 +6398,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -6166,12 +6438,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>97181A124</t>
+          <t>97181A123</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>13.23</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -6188,7 +6460,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -6198,17 +6470,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -6223,22 +6495,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>97181A125</t>
+          <t>97181A124</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>13.23</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -6250,7 +6522,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -6290,12 +6562,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>97181A126</t>
+          <t>97181A125</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>11.38</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -6312,7 +6584,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -6352,12 +6624,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>97181A127</t>
+          <t>97181A126</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>14.16</t>
+          <t>11.38</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6374,7 +6646,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -6414,12 +6686,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>97181A128</t>
+          <t>97181A127</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>15.85</t>
+          <t>14.16</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6436,60 +6708,122 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>1 1/4"</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.492"</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.175"</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>97181A128</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>15.85</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>0.492"</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>0.175"</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>97181A129</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>6.88</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>316 Stainless Steel</t>
         </is>
